--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T14:30:00+00:00</t>
+    <t>2025-06-03T15:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:17:23+00:00</t>
+    <t>2025-06-03T15:24:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:24:37+00:00</t>
+    <t>2025-06-04T08:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>R5 Profile for recording key vital signs (Systolic/Diastolic BP) in stroke patients.</t>
+    <t>Profile for recording key vital signs (Systolic/Diastolic BP) in stroke patients.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:16:37+00:00</t>
+    <t>2025-06-04T08:27:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:27:13+00:00</t>
+    <t>2025-06-04T08:35:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:35:18+00:00</t>
+    <t>2025-06-04T08:43:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:43:19+00:00</t>
+    <t>2025-06-04T08:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:56:07+00:00</t>
+    <t>2025-06-04T09:35:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T09:35:36+00:00</t>
+    <t>2025-08-28T12:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:22:25+00:00</t>
+    <t>2025-08-28T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:34:04+00:00</t>
+    <t>2025-08-28T14:22:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:22:33+00:00</t>
+    <t>2025-08-28T14:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:36:09+00:00</t>
+    <t>2025-08-29T08:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T08:36:57+00:00</t>
+    <t>2025-08-29T09:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T09:46:03+00:00</t>
+    <t>2025-09-03T11:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T11:52:57+00:00</t>
+    <t>2025-09-04T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T12:43:39+00:00</t>
+    <t>2025-09-05T10:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T10:27:45+00:00</t>
+    <t>2025-09-05T14:06:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T14:06:57+00:00</t>
+    <t>2025-09-05T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T16:38:52+00:00</t>
+    <t>2025-09-08T06:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T06:26:35+00:00</t>
+    <t>2025-09-08T07:31:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T07:31:14+00:00</t>
+    <t>2025-09-08T10:17:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T10:17:51+00:00</t>
+    <t>2025-09-08T16:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T16:35:28+00:00</t>
+    <t>2025-09-09T08:15:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -523,8 +523,8 @@
     <t>Observation.instantiates[x]</t>
   </si>
   <si>
-    <t>canonical(ObservationDefinition)
-Reference(ObservationDefinition)</t>
+    <t>canonical(ObservationDefinition|5.0.0)
+Reference(ObservationDefinition|5.0.0)</t>
   </si>
   <si>
     <t>Instantiates FHIR ObservationDefinition</t>
@@ -549,7 +549,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|5.0.0|DeviceRequest|5.0.0|ImmunizationRecommendation|5.0.0|MedicationRequest|5.0.0|NutritionOrder|5.0.0|ServiceRequest|5.0.0)
 </t>
   </si>
   <si>
@@ -636,7 +636,7 @@
     <t>Observation.triggeredBy.observation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation)
+    <t xml:space="preserve">Reference(Observation|5.0.0)
 </t>
   </si>
   <si>
@@ -781,7 +781,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|5.0.0</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -865,7 +865,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|5.0.0)
 </t>
   </si>
   <si>
@@ -888,7 +888,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|5.0.0)
 </t>
   </si>
   <si>
@@ -979,7 +979,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|5.0.0|PractitionerRole|5.0.0|Organization|5.0.0|CareTeam|5.0.0|Patient|5.0.0|RelatedPerson|5.0.0)
 </t>
   </si>
   <si>
@@ -1216,7 +1216,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|5.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1248,7 +1248,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|5.0.0</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1306,7 +1306,7 @@
     <t>SNOMED CT Body site concepts</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|5.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">obs-8
@@ -1328,7 +1328,7 @@
     <t>Observation.bodyStructure</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(BodyStructure)
+    <t xml:space="preserve">Reference(BodyStructure|5.0.0)
 </t>
   </si>
   <si>
@@ -1359,7 +1359,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|5.0.0</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1371,7 +1371,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen|Group)
+    <t xml:space="preserve">Reference(Specimen|5.0.0|Group|5.0.0)
 </t>
   </si>
   <si>
@@ -1403,7 +1403,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|5.0.0|DeviceMetric|5.0.0)
 </t>
   </si>
   <si>
@@ -1465,7 +1465,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|5.0.0}
 </t>
   </si>
   <si>
@@ -1506,7 +1506,7 @@
     <t>Codes identifying the normal value of the observation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-referencerange-normalvalue</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-referencerange-normalvalue|5.0.0</t>
   </si>
   <si>
     <t>value:IVL_PQ.normal</t>
@@ -1530,7 +1530,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|5.0.0</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1563,7 +1563,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|5.0.0</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1604,7 +1604,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|5.0.0|QuestionnaireResponse|5.0.0|MolecularSequence|5.0.0)
 </t>
   </si>
   <si>
@@ -1623,7 +1623,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|ImagingSelection|QuestionnaireResponse|Observation|MolecularSequence|GenomicStudy)
+    <t xml:space="preserve">Reference(DocumentReference|5.0.0|ImagingStudy|5.0.0|ImagingSelection|5.0.0|QuestionnaireResponse|5.0.0|Observation|5.0.0|MolecularSequence|5.0.0|GenomicStudy|5.0.0)
 </t>
   </si>
   <si>
@@ -1684,7 +1684,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|5.0.0</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1695,7 +1695,7 @@
   </si>
   <si>
     <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriodAttachmentReference(MolecularSequence)</t>
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriodAttachmentReference(MolecularSequence|5.0.0)</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -2077,7 +2077,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="109.15625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="140.859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2092,7 +2092,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.41796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T08:15:52+00:00</t>
+    <t>2025-09-09T09:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="544">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T09:28:44+00:00</t>
+    <t>2025-09-12T08:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -809,7 +809,22 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://testSK.org/ValueSet/vital-sign-codes-vs</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://snomed.info/sct"/&gt;
+    &lt;code value="61746007"/&gt;
+    &lt;display value="Taking patient vital signs (procedure)"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|5.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -1007,8 +1022,8 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity
-</t>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriodAttachmentReference(MolecularSequence|5.0.0)</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -1047,153 +1062,6 @@
     <t>363714003 |Interprets|</t>
   </si>
   <si>
-    <t>Observation.value[x].id</t>
-  </si>
-  <si>
-    <t>Observation.value[x].extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Observation.value[x].value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
-</t>
-  </si>
-  <si>
-    <t>Numerical value (with implicit precision)</t>
-  </si>
-  <si>
-    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
-  </si>
-  <si>
-    <t>Quantity.value</t>
-  </si>
-  <si>
-    <t>SN.2  / CQ - N/A</t>
-  </si>
-  <si>
-    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
-  </si>
-  <si>
-    <t>Observation.value[x].comparator</t>
-  </si>
-  <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; | ad - how to understand the value</t>
-  </si>
-  <si>
-    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|5.0.0</t>
-  </si>
-  <si>
-    <t>Quantity.comparator</t>
-  </si>
-  <si>
-    <t>SN.1  / CQ.1</t>
-  </si>
-  <si>
-    <t>IVL properties</t>
-  </si>
-  <si>
-    <t>Observation.value[x].unit</t>
-  </si>
-  <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
-  </si>
-  <si>
-    <t>mmHg</t>
-  </si>
-  <si>
-    <t>Quantity.unit</t>
-  </si>
-  <si>
-    <t>(see OBX.6 etc.) / CQ.2</t>
-  </si>
-  <si>
-    <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>Observation.value[x].system</t>
-  </si>
-  <si>
-    <t>System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>http://unitsofmeasure.org</t>
-  </si>
-  <si>
-    <t>Quantity.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty-3
-</t>
-  </si>
-  <si>
-    <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.value[x].code</t>
-  </si>
-  <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>mm[Hg]</t>
-  </si>
-  <si>
-    <t>Quantity.code</t>
-  </si>
-  <si>
-    <t>PQ.code, MO.currency, PQ.translation.code</t>
-  </si>
-  <si>
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
@@ -1298,9 +1166,6 @@
   </si>
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>SNOMED CT Body site concepts</t>
@@ -1681,10 +1546,7 @@
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes|5.0.0</t>
+    <t>http://testSK.org/ValueSet/vital-sign-codes-vs</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1694,8 +1556,8 @@
     <t>Observation.component.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriodAttachmentReference(MolecularSequence|5.0.0)</t>
+    <t xml:space="preserve">Quantity
+</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1714,6 +1576,153 @@
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].id</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; | ad - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|5.0.0</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>mmHg</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>http://unitsofmeasure.org</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>mm[Hg]</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
   <si>
     <t>Observation.component.dataAbsentReason</t>
@@ -4924,7 +4933,7 @@
         <v>20</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>20</v>
@@ -4939,11 +4948,13 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -4970,36 +4981,36 @@
         <v>93</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>206</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5022,19 +5033,19 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -5083,7 +5094,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5098,19 +5109,19 @@
         <v>105</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>20</v>
@@ -5118,10 +5129,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5144,16 +5155,16 @@
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5203,7 +5214,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5221,16 +5232,16 @@
         <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>20</v>
@@ -5238,14 +5249,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5264,19 +5275,19 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -5325,7 +5336,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5340,19 +5351,19 @@
         <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>20</v>
@@ -5360,14 +5371,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5386,19 +5397,19 @@
         <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -5447,7 +5458,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5462,19 +5473,19 @@
         <v>105</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>20</v>
@@ -5482,10 +5493,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5508,16 +5519,16 @@
         <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5567,7 +5578,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5585,16 +5596,16 @@
         <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>20</v>
@@ -5602,10 +5613,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5628,17 +5639,17 @@
         <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5687,7 +5698,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5702,19 +5713,19 @@
         <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>20</v>
@@ -5722,10 +5733,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5733,13 +5744,13 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>20</v>
@@ -5748,19 +5759,19 @@
         <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5809,7 +5820,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5818,7 +5829,7 @@
         <v>93</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>105</v>
@@ -5830,24 +5841,24 @@
         <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5870,16 +5881,20 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>95</v>
+        <v>234</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>183</v>
+        <v>328</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
       </c>
@@ -5903,13 +5918,13 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>20</v>
+        <v>332</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>20</v>
+        <v>333</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -5927,7 +5942,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>185</v>
+        <v>327</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5936,10 +5951,10 @@
         <v>93</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>186</v>
+        <v>335</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>20</v>
@@ -5951,10 +5966,10 @@
         <v>20</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>187</v>
+        <v>336</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>20</v>
@@ -5962,14 +5977,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>140</v>
+        <v>338</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5988,18 +6003,20 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>141</v>
+        <v>234</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>142</v>
+        <v>339</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>189</v>
+        <v>340</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
       </c>
@@ -6023,31 +6040,31 @@
         <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>20</v>
+        <v>332</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>20</v>
+        <v>343</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>20</v>
+        <v>344</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>326</v>
+        <v>20</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>327</v>
+        <v>20</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>328</v>
+        <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>190</v>
+        <v>337</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6059,7 +6076,7 @@
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>20</v>
@@ -6068,24 +6085,24 @@
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>20</v>
+        <v>345</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>20</v>
+        <v>346</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>187</v>
+        <v>347</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>20</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6096,7 +6113,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -6105,22 +6122,22 @@
         <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -6169,13 +6186,13 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
@@ -6193,10 +6210,10 @@
         <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>20</v>
@@ -6204,10 +6221,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6224,30 +6241,28 @@
         <v>20</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>113</v>
+        <v>234</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q35" t="s" s="2">
-        <v>342</v>
-      </c>
+      <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
         <v>20</v>
       </c>
@@ -6267,13 +6282,13 @@
         <v>20</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>117</v>
+        <v>252</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>20</v>
@@ -6291,7 +6306,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6300,7 +6315,7 @@
         <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>20</v>
+        <v>363</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>105</v>
@@ -6312,24 +6327,24 @@
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>20</v>
+        <v>364</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>20</v>
+        <v>367</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6349,21 +6364,21 @@
         <v>20</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>182</v>
+        <v>369</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>20</v>
       </c>
@@ -6372,7 +6387,7 @@
         <v>20</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>352</v>
+        <v>20</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>20</v>
@@ -6411,7 +6426,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6420,7 +6435,7 @@
         <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>20</v>
+        <v>363</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>105</v>
@@ -6435,10 +6450,10 @@
         <v>20</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>354</v>
+        <v>20</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>20</v>
@@ -6446,10 +6461,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6469,20 +6484,22 @@
         <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>107</v>
+        <v>234</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O37" t="s" s="2">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -6492,7 +6509,7 @@
         <v>20</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>20</v>
@@ -6507,13 +6524,13 @@
         <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>20</v>
+        <v>378</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>20</v>
+        <v>379</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>20</v>
@@ -6531,7 +6548,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6540,7 +6557,7 @@
         <v>93</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>362</v>
+        <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>105</v>
@@ -6555,10 +6572,10 @@
         <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>20</v>
@@ -6566,10 +6583,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6589,23 +6606,21 @@
         <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>113</v>
+        <v>383</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>20</v>
       </c>
@@ -6614,7 +6629,7 @@
         <v>20</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>369</v>
+        <v>20</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>20</v>
@@ -6653,7 +6668,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6662,10 +6677,10 @@
         <v>93</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>362</v>
+        <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>105</v>
+        <v>387</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>20</v>
@@ -6674,24 +6689,24 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>20</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6714,20 +6729,18 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>234</v>
+        <v>393</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>20</v>
       </c>
@@ -6751,13 +6764,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>377</v>
+        <v>20</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>378</v>
+        <v>20</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>379</v>
+        <v>20</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6775,7 +6788,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6784,7 +6797,7 @@
         <v>93</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>380</v>
+        <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>105</v>
@@ -6796,28 +6809,28 @@
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>20</v>
+        <v>397</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>138</v>
+        <v>398</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>383</v>
+        <v>20</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6836,19 +6849,19 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6873,13 +6886,13 @@
         <v>20</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>377</v>
+        <v>20</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>388</v>
+        <v>20</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>389</v>
+        <v>20</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>20</v>
@@ -6897,7 +6910,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6909,7 +6922,7 @@
         <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>105</v>
+        <v>406</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>20</v>
@@ -6918,24 +6931,24 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>390</v>
+        <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>393</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6946,7 +6959,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
@@ -6958,20 +6971,16 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>395</v>
+        <v>182</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>396</v>
+        <v>183</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>20</v>
       </c>
@@ -7019,19 +7028,19 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>394</v>
+        <v>185</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>20</v>
@@ -7043,10 +7052,10 @@
         <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>401</v>
+        <v>187</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>20</v>
@@ -7054,21 +7063,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
@@ -7080,16 +7089,16 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>234</v>
+        <v>141</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>403</v>
+        <v>142</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>404</v>
+        <v>189</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>405</v>
+        <v>144</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7115,13 +7124,13 @@
         <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>406</v>
+        <v>20</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>407</v>
+        <v>20</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>408</v>
+        <v>20</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>20</v>
@@ -7139,19 +7148,19 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>402</v>
+        <v>190</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>409</v>
+        <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>20</v>
@@ -7160,58 +7169,60 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>410</v>
+        <v>20</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>411</v>
+        <v>20</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>412</v>
+        <v>187</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>413</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>415</v>
+        <v>141</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>416</v>
+        <v>193</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>417</v>
+        <v>194</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
       </c>
@@ -7259,19 +7270,19 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>414</v>
+        <v>195</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>409</v>
+        <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
@@ -7286,7 +7297,7 @@
         <v>20</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>412</v>
+        <v>138</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>20</v>
@@ -7294,10 +7305,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7320,20 +7331,16 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>234</v>
+        <v>413</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
       </c>
@@ -7357,13 +7364,13 @@
         <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>406</v>
+        <v>20</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>424</v>
+        <v>20</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>425</v>
+        <v>20</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
@@ -7381,7 +7388,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7390,7 +7397,7 @@
         <v>93</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>20</v>
+        <v>416</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>105</v>
@@ -7405,10 +7412,10 @@
         <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>20</v>
@@ -7416,10 +7423,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7442,17 +7449,15 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7501,7 +7506,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7510,10 +7515,10 @@
         <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>20</v>
+        <v>416</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>433</v>
+        <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
@@ -7522,24 +7527,24 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>434</v>
+        <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>437</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7562,17 +7567,15 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>439</v>
+        <v>234</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7597,13 +7600,13 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>20</v>
+        <v>332</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>20</v>
+        <v>425</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>20</v>
+        <v>426</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -7621,7 +7624,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7642,24 +7645,24 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>443</v>
+        <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>444</v>
+        <v>407</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>446</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7670,7 +7673,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -7682,19 +7685,19 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7719,13 +7722,13 @@
         <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>20</v>
+        <v>433</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>20</v>
+        <v>434</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -7743,19 +7746,19 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>452</v>
+        <v>105</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
@@ -7764,13 +7767,13 @@
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>20</v>
+        <v>435</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>454</v>
+        <v>347</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>20</v>
@@ -7778,10 +7781,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7792,7 +7795,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
@@ -7804,16 +7807,20 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>183</v>
+        <v>438</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
       </c>
@@ -7837,13 +7844,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>20</v>
+        <v>442</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>20</v>
+        <v>443</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7861,19 +7868,19 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>185</v>
+        <v>437</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
@@ -7882,13 +7889,13 @@
         <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>20</v>
+        <v>435</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>20</v>
+        <v>436</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>187</v>
+        <v>347</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>20</v>
@@ -7896,21 +7903,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -7922,18 +7929,18 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>141</v>
+        <v>445</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>142</v>
+        <v>446</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
       </c>
@@ -7981,19 +7988,19 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>190</v>
+        <v>444</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>20</v>
@@ -8008,7 +8015,7 @@
         <v>20</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>187</v>
+        <v>449</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>20</v>
@@ -8016,46 +8023,42 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>141</v>
+        <v>451</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>193</v>
+        <v>452</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>20</v>
       </c>
@@ -8103,19 +8106,19 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>195</v>
+        <v>450</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>20</v>
+        <v>416</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
@@ -8127,10 +8130,10 @@
         <v>20</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>20</v>
+        <v>407</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>138</v>
+        <v>454</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>20</v>
@@ -8138,10 +8141,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8152,7 +8155,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
@@ -8161,18 +8164,20 @@
         <v>20</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -8221,16 +8226,16 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>462</v>
+        <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>105</v>
@@ -8245,10 +8250,10 @@
         <v>20</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>463</v>
+        <v>200</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>20</v>
@@ -8256,10 +8261,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8270,7 +8275,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -8279,18 +8284,20 @@
         <v>20</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -8339,16 +8346,16 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>462</v>
+        <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>105</v>
@@ -8363,10 +8370,10 @@
         <v>20</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>20</v>
@@ -8374,10 +8381,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8388,28 +8395,32 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
       </c>
@@ -8433,13 +8444,13 @@
         <v>20</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>377</v>
+        <v>20</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>471</v>
+        <v>20</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>472</v>
+        <v>20</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>20</v>
@@ -8457,16 +8468,16 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>105</v>
@@ -8481,7 +8492,7 @@
         <v>20</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>473</v>
@@ -8518,20 +8529,16 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>475</v>
+        <v>183</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>20</v>
       </c>
@@ -8555,13 +8562,13 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>480</v>
+        <v>20</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>20</v>
@@ -8579,7 +8586,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>474</v>
+        <v>185</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8588,10 +8595,10 @@
         <v>93</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>20</v>
@@ -8600,13 +8607,13 @@
         <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>481</v>
+        <v>20</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>482</v>
+        <v>20</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>392</v>
+        <v>187</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>20</v>
@@ -8614,14 +8621,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8640,20 +8647,18 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>234</v>
+        <v>141</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>484</v>
+        <v>142</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>485</v>
+        <v>189</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>20</v>
       </c>
@@ -8677,13 +8682,13 @@
         <v>20</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>406</v>
+        <v>20</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>488</v>
+        <v>20</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>489</v>
+        <v>20</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>20</v>
@@ -8701,7 +8706,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>483</v>
+        <v>190</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8713,7 +8718,7 @@
         <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>20</v>
@@ -8722,13 +8727,13 @@
         <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>481</v>
+        <v>20</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>482</v>
+        <v>20</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>392</v>
+        <v>187</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>20</v>
@@ -8736,43 +8741,45 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>491</v>
+        <v>141</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>492</v>
+        <v>193</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O56" t="s" s="2">
-        <v>494</v>
+        <v>150</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -8821,19 +8828,19 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>490</v>
+        <v>195</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>20</v>
@@ -8848,7 +8855,7 @@
         <v>20</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>495</v>
+        <v>138</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>20</v>
@@ -8856,10 +8863,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8867,31 +8874,35 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>497</v>
+        <v>234</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
       </c>
@@ -8915,13 +8926,11 @@
         <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>20</v>
+        <v>481</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>20</v>
@@ -8939,16 +8948,16 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>462</v>
+        <v>255</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>105</v>
@@ -8957,16 +8966,16 @@
         <v>20</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>20</v>
+        <v>257</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>20</v>
+        <v>482</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>453</v>
+        <v>259</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>500</v>
+        <v>206</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>20</v>
@@ -8974,10 +8983,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8985,13 +8994,13 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>20</v>
@@ -9000,18 +9009,20 @@
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>504</v>
+        <v>319</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
       </c>
@@ -9059,13 +9070,13 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>20</v>
@@ -9080,24 +9091,24 @@
         <v>20</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>20</v>
+        <v>487</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>506</v>
+        <v>324</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>20</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9108,7 +9119,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>20</v>
@@ -9117,20 +9128,18 @@
         <v>20</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>508</v>
+        <v>95</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>509</v>
+        <v>183</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>511</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -9179,19 +9188,19 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>507</v>
+        <v>185</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>20</v>
@@ -9203,10 +9212,10 @@
         <v>20</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>506</v>
+        <v>20</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>512</v>
+        <v>187</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>20</v>
@@ -9214,14 +9223,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9237,23 +9246,21 @@
         <v>20</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>514</v>
+        <v>142</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>515</v>
+        <v>189</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>20</v>
       </c>
@@ -9289,19 +9296,19 @@
         <v>20</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>20</v>
+        <v>490</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>20</v>
+        <v>491</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>20</v>
+        <v>492</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>513</v>
+        <v>190</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9310,10 +9317,10 @@
         <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>20</v>
@@ -9325,10 +9332,10 @@
         <v>20</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>518</v>
+        <v>20</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>519</v>
+        <v>187</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>20</v>
@@ -9336,10 +9343,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>520</v>
+        <v>493</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>520</v>
+        <v>493</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9359,19 +9366,23 @@
         <v>20</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>182</v>
+        <v>494</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>183</v>
+        <v>495</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>20</v>
       </c>
@@ -9419,7 +9430,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>185</v>
+        <v>499</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9428,10 +9439,10 @@
         <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>20</v>
@@ -9443,10 +9454,10 @@
         <v>20</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>187</v>
+        <v>501</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>20</v>
@@ -9454,48 +9465,50 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>142</v>
+        <v>503</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="R62" t="s" s="2">
         <v>20</v>
       </c>
@@ -9515,13 +9528,13 @@
         <v>20</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>20</v>
+        <v>507</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>20</v>
+        <v>508</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>20</v>
@@ -9539,19 +9552,19 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>190</v>
+        <v>509</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>20</v>
@@ -9563,10 +9576,10 @@
         <v>20</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>20</v>
+        <v>510</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>187</v>
+        <v>511</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>20</v>
@@ -9574,45 +9587,43 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>193</v>
+        <v>513</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>150</v>
+        <v>515</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>20</v>
@@ -9622,7 +9633,7 @@
         <v>20</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>20</v>
+        <v>516</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>20</v>
@@ -9661,19 +9672,19 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>195</v>
+        <v>517</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>20</v>
@@ -9685,10 +9696,10 @@
         <v>20</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>20</v>
+        <v>518</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>138</v>
+        <v>519</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>20</v>
@@ -9696,10 +9707,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9707,7 +9718,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>93</v>
@@ -9722,19 +9733,17 @@
         <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>250</v>
+        <v>523</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -9744,7 +9753,7 @@
         <v>20</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>20</v>
+        <v>524</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>20</v>
@@ -9759,13 +9768,13 @@
         <v>20</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>406</v>
+        <v>20</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>527</v>
+        <v>20</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>528</v>
+        <v>20</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>20</v>
@@ -9783,16 +9792,16 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>252</v>
+        <v>526</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>105</v>
@@ -9801,16 +9810,16 @@
         <v>20</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>529</v>
+        <v>20</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>256</v>
+        <v>518</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>206</v>
+        <v>527</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>20</v>
@@ -9818,10 +9827,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9844,19 +9853,19 @@
         <v>94</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>20</v>
@@ -9866,7 +9875,7 @@
         <v>20</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>20</v>
+        <v>533</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>20</v>
@@ -9905,7 +9914,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9914,7 +9923,7 @@
         <v>93</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>20</v>
+        <v>526</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>105</v>
@@ -9926,24 +9935,24 @@
         <v>20</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>534</v>
+        <v>20</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>321</v>
+        <v>518</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>322</v>
+        <v>535</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>323</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9969,16 +9978,16 @@
         <v>234</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>376</v>
+        <v>331</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>20</v>
@@ -10003,13 +10012,13 @@
         <v>20</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>20</v>
@@ -10027,7 +10036,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10054,7 +10063,7 @@
         <v>138</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>381</v>
+        <v>336</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>20</v>
@@ -10062,14 +10071,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10091,16 +10100,16 @@
         <v>234</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>385</v>
+        <v>340</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>20</v>
@@ -10125,13 +10134,13 @@
         <v>20</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>20</v>
@@ -10149,7 +10158,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10170,24 +10179,24 @@
         <v>20</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>390</v>
+        <v>345</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>393</v>
+        <v>348</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10213,16 +10222,16 @@
         <v>82</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -10271,7 +10280,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10295,10 +10304,10 @@
         <v>20</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T08:57:32+00:00</t>
+    <t>2025-09-15T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T11:30:19+00:00</t>
+    <t>2025-09-15T14:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T14:05:10+00:00</t>
+    <t>2025-09-17T09:29:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T09:29:40+00:00</t>
+    <t>2025-09-17T10:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T10:41:45+00:00</t>
+    <t>2025-09-17T12:21:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1688,7 +1688,7 @@
     <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
-    <t>http://unitsofmeasure.org</t>
+    <t>https://ucum.org/ucum</t>
   </si>
   <si>
     <t>Quantity.system</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T12:21:11+00:00</t>
+    <t>2025-09-17T16:26:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:26:28+00:00</t>
+    <t>2025-09-17T16:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:58:51+00:00</t>
+    <t>2025-09-22T08:26:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:26:26+00:00</t>
+    <t>2025-09-22T08:28:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:28:48+00:00</t>
+    <t>2025-09-22T08:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:30:29+00:00</t>
+    <t>2025-09-22T08:34:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:34:05+00:00</t>
+    <t>2025-09-22T09:39:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:31+00:00</t>
+    <t>2025-09-22T09:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:40+00:00</t>
+    <t>2025-09-22T11:46:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T11:46:58+00:00</t>
+    <t>2025-09-22T13:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T13:11:45+00:00</t>
+    <t>2025-09-22T14:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T14:03:07+00:00</t>
+    <t>2025-09-22T15:14:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T15:14:25+00:00</t>
+    <t>2025-09-22T16:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:06:01+00:00</t>
+    <t>2025-09-22T16:51:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:51:16+00:00</t>
+    <t>2025-09-22T17:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:06:55+00:00</t>
+    <t>2025-09-22T17:32:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:32:58+00:00</t>
+    <t>2025-09-22T17:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:48:18+00:00</t>
+    <t>2025-09-22T18:03:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T18:03:45+00:00</t>
+    <t>2025-09-23T08:18:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:18:09+00:00</t>
+    <t>2025-09-23T08:32:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:32:43+00:00</t>
+    <t>2025-09-23T08:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:41:48+00:00</t>
+    <t>2025-09-23T08:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:42:22+00:00</t>
+    <t>2025-09-23T08:51:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:51:27+00:00</t>
+    <t>2025-09-23T08:52:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:52:02+00:00</t>
+    <t>2025-09-23T10:06:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:06:45+00:00</t>
+    <t>2025-09-23T10:19:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:12+00:00</t>
+    <t>2025-09-23T10:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:52+00:00</t>
+    <t>2025-09-23T10:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:20:32+00:00</t>
+    <t>2025-09-23T10:26:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:26:15+00:00</t>
+    <t>2025-09-23T10:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:43:17+00:00</t>
+    <t>2025-09-23T11:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:03:07+00:00</t>
+    <t>2025-09-23T11:44:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:44:28+00:00</t>
+    <t>2025-09-23T12:00:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:00:42+00:00</t>
+    <t>2025-09-23T12:55:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:55:27+00:00</t>
+    <t>2025-09-23T13:35:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T13:35:37+00:00</t>
+    <t>2025-09-23T14:01:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:01:22+00:00</t>
+    <t>2025-09-23T14:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:15:20+00:00</t>
+    <t>2025-09-23T14:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:32:14+00:00</t>
+    <t>2025-09-23T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:14:11+00:00</t>
+    <t>2025-09-23T16:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:36:06+00:00</t>
+    <t>2025-09-23T17:01:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T17:01:11+00:00</t>
+    <t>2025-09-24T09:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T09:25:22+00:00</t>
+    <t>2025-09-24T10:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:35:41+00:00</t>
+    <t>2025-09-24T10:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:48:34+00:00</t>
+    <t>2025-09-24T11:09:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T11:09:16+00:00</t>
+    <t>2025-09-24T16:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:01:08+00:00</t>
+    <t>2025-09-24T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:38:52+00:00</t>
+    <t>2025-09-25T09:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:51:46+00:00</t>
+    <t>2025-09-25T09:59:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:59:12+00:00</t>
+    <t>2025-09-25T10:18:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:18:49+00:00</t>
+    <t>2025-09-25T10:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:34:09+00:00</t>
+    <t>2025-09-25T11:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T11:37:39+00:00</t>
+    <t>2025-09-25T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T13:52:06+00:00</t>
+    <t>2025-09-25T14:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T14:17:34+00:00</t>
+    <t>2025-09-25T15:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T15:24:58+00:00</t>
+    <t>2025-09-26T07:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:24:51+00:00</t>
+    <t>2025-09-26T07:49:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:49:53+00:00</t>
+    <t>2025-09-26T08:03:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T08:03:06+00:00</t>
+    <t>2025-09-29T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T10:55:47+00:00</t>
+    <t>2025-09-29T11:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:14:34+00:00</t>
+    <t>2025-09-29T11:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:58:57+00:00</t>
+    <t>2025-09-29T12:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T12:25:49+00:00</t>
+    <t>2025-09-29T16:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T16:14:38+00:00</t>
+    <t>2025-09-30T09:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T09:58:20+00:00</t>
+    <t>2025-10-01T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4519,7 +4519,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>211</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>220</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>233</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>245</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>261</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>277</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>288</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>467</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>477</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>483</v>
       </c>
@@ -10315,12 +10315,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP68">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T11:45:35+00:00</t>
+    <t>2025-10-02T08:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:30:31+00:00</t>
+    <t>2025-10-02T08:31:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:31:49+00:00</t>
+    <t>2025-10-02T08:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:40:06+00:00</t>
+    <t>2025-10-02T08:55:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:55:17+00:00</t>
+    <t>2025-10-02T09:37:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T09:37:00+00:00</t>
+    <t>2025-10-02T10:13:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:13:04+00:00</t>
+    <t>2025-10-02T10:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:17:19+00:00</t>
+    <t>2025-10-02T10:35:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:35:00+00:00</t>
+    <t>2025-10-02T10:46:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:46:31+00:00</t>
+    <t>2025-10-02T10:50:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:50:34+00:00</t>
+    <t>2025-10-02T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:55:47+00:00</t>
+    <t>2025-10-02T11:00:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:00:11+00:00</t>
+    <t>2025-10-02T11:01:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:01:02+00:00</t>
+    <t>2025-10-02T11:30:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:30:52+00:00</t>
+    <t>2025-10-02T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:45:35+00:00</t>
+    <t>2025-10-02T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:46:56+00:00</t>
+    <t>2025-10-02T12:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:14+00:00</t>
+    <t>2025-10-02T12:55:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:42+00:00</t>
+    <t>2025-10-03T09:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T09:35:04+00:00</t>
+    <t>2025-10-03T10:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T10:22:41+00:00</t>
+    <t>2025-10-03T16:25:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:25:29+00:00</t>
+    <t>2025-10-03T16:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:32:49+00:00</t>
+    <t>2025-10-06T07:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T07:31:52+00:00</t>
+    <t>2025-10-07T10:46:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T10:46:08+00:00</t>
+    <t>2025-10-07T11:37:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T11:37:10+00:00</t>
+    <t>2025-10-07T12:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T12:40:55+00:00</t>
+    <t>2025-10-07T16:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T16:03:53+00:00</t>
+    <t>2025-10-09T10:11:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T10:11:37+00:00</t>
+    <t>2025-10-16T13:22:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T13:22:06+00:00</t>
+    <t>2025-10-16T13:23:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T13:23:59+00:00</t>
+    <t>2025-10-20T09:52:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T09:52:43+00:00</t>
+    <t>2025-10-20T12:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T12:40:55+00:00</t>
+    <t>2025-10-20T13:57:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T13:57:50+00:00</t>
+    <t>2025-10-20T14:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1664,7 +1664,7 @@
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
-    <t>mmHg</t>
+    <t>millimeter Mercury column</t>
   </si>
   <si>
     <t>Quantity.unit</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T14:31:52+00:00</t>
+    <t>2025-10-21T11:09:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:09:58+00:00</t>
+    <t>2025-10-23T09:52:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:52:59+00:00</t>
+    <t>2025-10-23T14:53:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T14:53:04+00:00</t>
+    <t>2025-10-23T15:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T15:20:30+00:00</t>
+    <t>2025-10-27T09:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T09:20:18+00:00</t>
+    <t>2025-10-27T10:25:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T10:25:48+00:00</t>
+    <t>2025-10-30T10:04:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
